--- a/Documentos/database/rawfiles/dicionario.xlsx
+++ b/Documentos/database/rawfiles/dicionario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eusou\Desktop\projeto_final\QUICKWORK\documentos\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eusou\Desktop\projeto_final\QUICKWORK\Documentos\database\rawfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B938EFE-511E-4839-BB3F-F63F8CCB98C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B006002-E69F-43C2-B7C0-C3D323A50E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FB7D4E63-3DAB-480E-8604-9CE8EAE13760}"/>
+    <workbookView xWindow="1590" yWindow="1965" windowWidth="21600" windowHeight="11835" xr2:uid="{FB7D4E63-3DAB-480E-8604-9CE8EAE13760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>data do inicio de trabalho</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>data em que o trabalho acabou</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>numeric(5,2)</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,15 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C1BA9E-8D09-48F9-99D8-1EACD552EA17}">
   <dimension ref="B2:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,22 +806,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -862,10 +853,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -927,22 +918,22 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
@@ -984,13 +975,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1046,7 +1037,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -1058,7 +1049,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -1070,7 +1061,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -1079,10 +1070,10 @@
         <v>47</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -1091,7 +1082,7 @@
         <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
@@ -1100,19 +1091,19 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -1123,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -1144,10 +1135,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>16</v>
@@ -1158,13 +1149,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -1298,7 +1289,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -1309,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
@@ -1330,10 +1321,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -1342,10 +1333,10 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>17</v>
@@ -1354,7 +1345,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -1365,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
@@ -1386,10 +1377,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>16</v>
@@ -1400,7 +1391,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -1411,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
@@ -1432,10 +1423,10 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>16</v>
@@ -1446,13 +1437,13 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>19</v>
@@ -1460,10 +1451,10 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>17</v>
@@ -1472,10 +1463,10 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>51</v>
@@ -1483,11 +1474,18 @@
       <c r="E66" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
